--- a/raw_data/20200818_saline/20200818_Sensor1_Test_67.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_67.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2D25C-B191-4473-ABB9-32EF5202CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>59587.869201</v>
+        <v>59587.869201000001</v>
       </c>
       <c r="B2" s="1">
-        <v>16.552186</v>
+        <v>16.552185999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.256000</v>
+        <v>901.25599999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.182000</v>
+        <v>-198.18199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>59597.964790</v>
+        <v>59597.964789999998</v>
       </c>
       <c r="G2" s="1">
-        <v>16.554990</v>
+        <v>16.55499</v>
       </c>
       <c r="H2" s="1">
-        <v>918.284000</v>
+        <v>918.28399999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.477000</v>
+        <v>-167.477</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>59608.105963</v>
+        <v>59608.105963000002</v>
       </c>
       <c r="L2" s="1">
         <v>16.557807</v>
       </c>
       <c r="M2" s="1">
-        <v>940.567000</v>
+        <v>940.56700000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.620000</v>
+        <v>-118.62</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>59618.928171</v>
@@ -526,390 +942,390 @@
         <v>16.560813</v>
       </c>
       <c r="R2" s="1">
-        <v>946.971000</v>
+        <v>946.971</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.689000</v>
+        <v>-102.68899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>59629.547517</v>
+        <v>59629.547516999999</v>
       </c>
       <c r="V2" s="1">
-        <v>16.563763</v>
+        <v>16.563763000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>953.414000</v>
+        <v>953.41399999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.966600</v>
+        <v>-87.9666</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>59639.981855</v>
+        <v>59639.981854999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.566662</v>
+        <v>16.566662000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.568000</v>
+        <v>960.56799999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.782500</v>
+        <v>-76.782499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>59650.538737</v>
+        <v>59650.538737000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.569594</v>
+        <v>16.569593999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.253000</v>
+        <v>965.25300000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.682100</v>
+        <v>-74.682100000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>59660.975061</v>
+        <v>59660.975060999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.572493</v>
+        <v>16.572493000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.539000</v>
+        <v>972.53899999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.552100</v>
+        <v>-79.552099999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>59671.550725</v>
+        <v>59671.550725000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.575431</v>
+        <v>16.575430999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.745000</v>
+        <v>980.745</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.218200</v>
+        <v>-91.218199999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>59682.811399</v>
+        <v>59682.811398999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.578559</v>
+        <v>16.578558999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.779000</v>
+        <v>990.779</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.900000</v>
+        <v>-108.9</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>59694.318584</v>
+        <v>59694.318584000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.581755</v>
+        <v>16.581755000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.162000</v>
+        <v>999.16200000000003</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>59705.305497</v>
+        <v>59705.305497000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.584807</v>
+        <v>16.584807000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.907000</v>
+        <v>-195.90700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>59716.320619</v>
+        <v>59716.320618999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.587867</v>
+        <v>16.587866999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.980000</v>
+        <v>-310.98</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>59727.831770</v>
+        <v>59727.831769999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.591064</v>
+        <v>16.591063999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-491.539000</v>
+        <v>-491.53899999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>59738.180341</v>
+        <v>59738.180340999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.593939</v>
+        <v>16.593938999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1335.580000</v>
+        <v>1335.58</v>
       </c>
       <c r="BV2" s="1">
-        <v>-689.308000</v>
+        <v>-689.30799999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>59748.587359</v>
+        <v>59748.587358999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.596830</v>
+        <v>16.596830000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-898.775000</v>
+        <v>-898.77499999999998</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>59759.939080</v>
+        <v>59759.939079999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.599983</v>
+        <v>16.599983000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1823.620000</v>
+        <v>1823.62</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1395.820000</v>
+        <v>-1395.82</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>59588.258548</v>
+        <v>59588.258547999998</v>
       </c>
       <c r="B3" s="1">
         <v>16.552294</v>
       </c>
       <c r="C3" s="1">
-        <v>901.092000</v>
+        <v>901.09199999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.076000</v>
+        <v>-198.07599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>59598.387846</v>
+        <v>59598.387845999998</v>
       </c>
       <c r="G3" s="1">
-        <v>16.555108</v>
+        <v>16.555108000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>918.605000</v>
+        <v>918.60500000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.991000</v>
+        <v>-166.99100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>59608.831645</v>
+        <v>59608.831644999998</v>
       </c>
       <c r="L3" s="1">
-        <v>16.558009</v>
+        <v>16.558008999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>940.565000</v>
+        <v>940.56500000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.769000</v>
+        <v>-118.76900000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>59619.350299</v>
+        <v>59619.350298999998</v>
       </c>
       <c r="Q3" s="1">
         <v>16.560931</v>
       </c>
       <c r="R3" s="1">
-        <v>946.963000</v>
+        <v>946.96299999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>59629.920509</v>
+        <v>59629.920509000003</v>
       </c>
       <c r="V3" s="1">
-        <v>16.563867</v>
+        <v>16.563866999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>953.359000</v>
+        <v>953.35900000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.951800</v>
+        <v>-87.951800000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>59640.346910</v>
+        <v>59640.34691</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.566763</v>
+        <v>16.566763000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.456000</v>
+        <v>960.45600000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.729900</v>
+        <v>-76.729900000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>59650.921123</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.569700</v>
+        <v>16.569700000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.247000</v>
+        <v>965.24699999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.640200</v>
+        <v>-74.640199999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>59661.711588</v>
+        <v>59661.711587999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.572698</v>
+        <v>16.572697999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.534000</v>
+        <v>972.53399999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.557700</v>
+        <v>-79.557699999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>59672.300676</v>
+        <v>59672.300675999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.575639</v>
+        <v>16.575638999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.758000</v>
+        <v>980.75800000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.211900</v>
+        <v>-91.2119</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>59683.201254</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.578667</v>
+        <v>16.578666999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.786000</v>
+        <v>990.78599999999994</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.893000</v>
+        <v>-108.893</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>59694.710920</v>
+        <v>59694.710919999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.581864</v>
+        <v>16.581863999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.158000</v>
+        <v>999.15800000000002</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.502000</v>
+        <v>-124.502</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>59705.668073</v>
+        <v>59705.668073000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.584908</v>
+        <v>16.584907999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.910000</v>
+        <v>-195.91</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>59717.045801</v>
@@ -918,362 +1334,362 @@
         <v>16.588068</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.989000</v>
+        <v>-310.98899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>59727.944860</v>
+        <v>59727.944860000003</v>
       </c>
       <c r="BO3" s="1">
         <v>16.591096</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-491.580000</v>
+        <v>-491.58</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>59738.330093</v>
+        <v>59738.330092999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.593981</v>
+        <v>16.593980999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="BV3" s="1">
-        <v>-689.383000</v>
+        <v>-689.38300000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>59749.051154</v>
+        <v>59749.051154000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.596959</v>
+        <v>16.596958999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.010000</v>
+        <v>1471.01</v>
       </c>
       <c r="CA3" s="1">
-        <v>-898.795000</v>
+        <v>-898.79499999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>59760.487908</v>
+        <v>59760.487908000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.600136</v>
+        <v>16.600135999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.100000</v>
+        <v>1825.1</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1395.480000</v>
+        <v>-1395.48</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>59588.693084</v>
+        <v>59588.693083999999</v>
       </c>
       <c r="B4" s="1">
         <v>16.552415</v>
       </c>
       <c r="C4" s="1">
-        <v>901.431000</v>
+        <v>901.43100000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.410000</v>
+        <v>-198.41</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>59598.693877</v>
+        <v>59598.693876999998</v>
       </c>
       <c r="G4" s="1">
-        <v>16.555193</v>
+        <v>16.555192999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>918.543000</v>
+        <v>918.54300000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.657000</v>
+        <v>-167.65700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>59609.178809</v>
+        <v>59609.178808999997</v>
       </c>
       <c r="L4" s="1">
-        <v>16.558105</v>
+        <v>16.558105000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.595000</v>
+        <v>940.59500000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.571000</v>
+        <v>-118.571</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>59619.699947</v>
+        <v>59619.699947000001</v>
       </c>
       <c r="Q4" s="1">
         <v>16.561028</v>
       </c>
       <c r="R4" s="1">
-        <v>946.960000</v>
+        <v>946.96</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>59630.258284</v>
+        <v>59630.258284000003</v>
       </c>
       <c r="V4" s="1">
-        <v>16.563961</v>
+        <v>16.563960999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.408000</v>
+        <v>953.40800000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.005400</v>
+        <v>-88.005399999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>59640.691631</v>
+        <v>59640.691631000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.566859</v>
+        <v>16.566859000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.417000</v>
+        <v>960.41700000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.701700</v>
+        <v>-76.701700000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>59651.610065</v>
+        <v>59651.610065000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.569892</v>
+        <v>16.569891999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.219000</v>
+        <v>965.21900000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.653500</v>
+        <v>-74.653499999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>59662.059318</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.572794</v>
+        <v>16.572793999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.561000</v>
+        <v>972.56100000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.530400</v>
+        <v>-79.5304</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>59672.659284</v>
+        <v>59672.659284000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.575739</v>
+        <v>16.575738999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.740000</v>
+        <v>980.74</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.201800</v>
+        <v>-91.201800000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>59683.568821</v>
+        <v>59683.568821000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.578769</v>
+        <v>16.578769000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.793000</v>
+        <v>990.79300000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.899000</v>
+        <v>-108.899</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>59695.386966</v>
+        <v>59695.386965999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.582052</v>
+        <v>16.582052000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.169000</v>
+        <v>999.16899999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.504000</v>
+        <v>-124.504</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>59706.343097</v>
+        <v>59706.343096999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.585095</v>
+        <v>16.585094999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.910000</v>
+        <v>-195.91</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>59717.519450</v>
+        <v>59717.51945</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.588200</v>
+        <v>16.588200000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.004000</v>
+        <v>-311.00400000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>59728.373402</v>
+        <v>59728.373401999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.591215</v>
+        <v>16.591214999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-491.536000</v>
+        <v>-491.536</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>59738.741814</v>
+        <v>59738.741814000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.594095</v>
+        <v>16.594094999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1335.740000</v>
+        <v>1335.74</v>
       </c>
       <c r="BV4" s="1">
-        <v>-689.397000</v>
+        <v>-689.39700000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>59749.499006</v>
+        <v>59749.499005999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.597083</v>
+        <v>16.597083000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.140000</v>
+        <v>1471.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-898.724000</v>
+        <v>-898.72400000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>59761.004735</v>
+        <v>59761.004735000002</v>
       </c>
       <c r="CD4" s="1">
         <v>16.600279</v>
       </c>
       <c r="CE4" s="1">
-        <v>1824.620000</v>
+        <v>1824.62</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1394.520000</v>
+        <v>-1394.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>59588.972292</v>
+        <v>59588.972291999999</v>
       </c>
       <c r="B5" s="1">
-        <v>16.552492</v>
+        <v>16.552492000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>901.068000</v>
+        <v>901.06799999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.199000</v>
+        <v>-198.19900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>59599.036837</v>
       </c>
       <c r="G5" s="1">
-        <v>16.555288</v>
+        <v>16.555288000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.281000</v>
+        <v>918.28099999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.365000</v>
+        <v>-167.36500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>59609.522074</v>
@@ -1282,677 +1698,677 @@
         <v>16.558201</v>
       </c>
       <c r="M5" s="1">
-        <v>940.404000</v>
+        <v>940.404</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.740000</v>
+        <v>-118.74</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>59620.049657</v>
+        <v>59620.049657000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.561125</v>
+        <v>16.561125000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.994000</v>
+        <v>946.99400000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.655000</v>
+        <v>-102.655</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>59630.946236</v>
+        <v>59630.946236000003</v>
       </c>
       <c r="V5" s="1">
         <v>16.564152</v>
       </c>
       <c r="W5" s="1">
-        <v>953.421000</v>
+        <v>953.42100000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.773900</v>
+        <v>-87.773899999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>59641.389503</v>
+        <v>59641.389502999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.567053</v>
+        <v>16.567053000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.448000</v>
+        <v>960.44799999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.671200</v>
+        <v>-76.671199999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>59651.951311</v>
+        <v>59651.951310999997</v>
       </c>
       <c r="AF5" s="1">
         <v>16.569986</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.224000</v>
+        <v>965.22400000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.648300</v>
+        <v>-74.648300000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>59662.407486</v>
+        <v>59662.407485999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.572891</v>
+        <v>16.572890999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.541000</v>
+        <v>972.54100000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.539600</v>
+        <v>-79.539599999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>59673.019381</v>
+        <v>59673.019380999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.575839</v>
+        <v>16.575838999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.767000</v>
+        <v>980.76700000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.203300</v>
+        <v>-91.203299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>59684.241861</v>
+        <v>59684.241861000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.578956</v>
+        <v>16.578956000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.762000</v>
+        <v>990.76199999999994</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.896000</v>
+        <v>-108.896</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>59695.789253</v>
+        <v>59695.789253000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.582164</v>
+        <v>16.582163999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.145000</v>
+        <v>999.14499999999998</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.497000</v>
+        <v>-124.497</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>59706.828680</v>
+        <v>59706.828679999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.585230</v>
+        <v>16.585229999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.897000</v>
+        <v>-195.89699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>59717.892941</v>
+        <v>59717.892940999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.588304</v>
+        <v>16.588304000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.007000</v>
+        <v>-311.00700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>59728.769738</v>
+        <v>59728.769738000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.591325</v>
+        <v>16.591325000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-491.599000</v>
+        <v>-491.59899999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>59739.172301</v>
+        <v>59739.172300999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.594215</v>
+        <v>16.594214999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-689.351000</v>
+        <v>-689.351</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>59749.929038</v>
+        <v>59749.929038000002</v>
       </c>
       <c r="BY5" s="1">
         <v>16.597203</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA5" s="1">
-        <v>-898.834000</v>
+        <v>-898.83399999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>59761.522291</v>
+        <v>59761.522291000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.600423</v>
+        <v>16.600422999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1823.600000</v>
+        <v>1823.6</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1395.210000</v>
+        <v>-1395.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>59589.315524</v>
+        <v>59589.315523999998</v>
       </c>
       <c r="B6" s="1">
         <v>16.552588</v>
       </c>
       <c r="C6" s="1">
-        <v>901.309000</v>
+        <v>901.30899999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.949000</v>
+        <v>-197.94900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>59599.379844</v>
+        <v>59599.379844000003</v>
       </c>
       <c r="G6" s="1">
-        <v>16.555383</v>
+        <v>16.555382999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>918.571000</v>
+        <v>918.57100000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.505000</v>
+        <v>-167.505</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>59610.215942</v>
+        <v>59610.215942000003</v>
       </c>
       <c r="L6" s="1">
-        <v>16.558393</v>
+        <v>16.558392999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.478000</v>
+        <v>940.47799999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.628000</v>
+        <v>-118.628</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>59620.742075</v>
+        <v>59620.742075000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.561317</v>
+        <v>16.561316999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>946.993000</v>
+        <v>946.99300000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>59631.297404</v>
+        <v>59631.297403999997</v>
       </c>
       <c r="V6" s="1">
         <v>16.564249</v>
       </c>
       <c r="W6" s="1">
-        <v>953.263000</v>
+        <v>953.26300000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.939300</v>
+        <v>-87.939300000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>59641.740205</v>
+        <v>59641.740205000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.567150</v>
+        <v>16.567150000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.640000</v>
+        <v>960.64</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.658000</v>
+        <v>-76.658000000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>59652.297050</v>
+        <v>59652.297050000001</v>
       </c>
       <c r="AF6" s="1">
         <v>16.570083</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.212000</v>
+        <v>965.21199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.659200</v>
+        <v>-74.659199999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>59663.069137</v>
+        <v>59663.069136999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.573075</v>
+        <v>16.573074999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.533000</v>
+        <v>972.53300000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.538900</v>
+        <v>-79.538899999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>59673.695427</v>
+        <v>59673.695426999999</v>
       </c>
       <c r="AP6" s="1">
         <v>16.576027</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.764000</v>
+        <v>980.76400000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.196800</v>
+        <v>-91.196799999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>59684.659034</v>
+        <v>59684.659033999997</v>
       </c>
       <c r="AU6" s="1">
         <v>16.579072</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.771000</v>
+        <v>990.77099999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.895000</v>
+        <v>-108.895</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>59696.174149</v>
+        <v>59696.174148999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.582271</v>
+        <v>16.582270999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.172000</v>
+        <v>999.17200000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.495000</v>
+        <v>-124.495</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>59707.142683</v>
+        <v>59707.142682999998</v>
       </c>
       <c r="BE6" s="1">
         <v>16.585317</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.903000</v>
+        <v>-195.90299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>59718.269399</v>
+        <v>59718.269398999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.588408</v>
+        <v>16.588408000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.992000</v>
+        <v>-310.99200000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>59729.193785</v>
+        <v>59729.193785000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.591443</v>
+        <v>16.591443000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-491.587000</v>
+        <v>-491.58699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>59739.643499</v>
+        <v>59739.643498999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.594345</v>
+        <v>16.594345000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1335.840000</v>
+        <v>1335.84</v>
       </c>
       <c r="BV6" s="1">
-        <v>-689.334000</v>
+        <v>-689.33399999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>59750.351134</v>
+        <v>59750.351133999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.597320</v>
+        <v>16.59732</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.170000</v>
+        <v>1471.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-898.846000</v>
+        <v>-898.846</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>59762.039028</v>
+        <v>59762.039027999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.600566</v>
+        <v>16.600566000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1823.750000</v>
+        <v>1823.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1394.660000</v>
+        <v>-1394.66</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>59589.655779</v>
+        <v>59589.655779000001</v>
       </c>
       <c r="B7" s="1">
-        <v>16.552682</v>
+        <v>16.552682000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>901.375000</v>
+        <v>901.375</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.164000</v>
+        <v>-198.16399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>59600.070004</v>
+        <v>59600.070004000001</v>
       </c>
       <c r="G7" s="1">
-        <v>16.555575</v>
+        <v>16.555575000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>918.311000</v>
+        <v>918.31100000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.235000</v>
+        <v>-167.23500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>59610.555703</v>
+        <v>59610.555702999998</v>
       </c>
       <c r="L7" s="1">
-        <v>16.558488</v>
+        <v>16.558488000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.459000</v>
+        <v>940.45899999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.767000</v>
+        <v>-118.767</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>59621.093704</v>
+        <v>59621.093703999999</v>
       </c>
       <c r="Q7" s="1">
         <v>16.561415</v>
       </c>
       <c r="R7" s="1">
-        <v>947.003000</v>
+        <v>947.00300000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>59631.638651</v>
+        <v>59631.638651000001</v>
       </c>
       <c r="V7" s="1">
-        <v>16.564344</v>
+        <v>16.564343999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>953.425000</v>
+        <v>953.42499999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.093100</v>
+        <v>-88.093100000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>59642.393900</v>
+        <v>59642.393900000003</v>
       </c>
       <c r="AA7" s="1">
         <v>16.567332</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.449000</v>
+        <v>960.44899999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.718300</v>
+        <v>-76.718299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>59652.965288</v>
+        <v>59652.965287999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.570268</v>
+        <v>16.570267999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.191000</v>
+        <v>965.19100000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.694400</v>
+        <v>-74.694400000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>59663.455024</v>
+        <v>59663.455024000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.573182</v>
+        <v>16.573181999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.532000</v>
+        <v>972.53200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.552100</v>
+        <v>-79.552099999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>59674.121490</v>
+        <v>59674.121489999998</v>
       </c>
       <c r="AP7" s="1">
         <v>16.576145</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.217500</v>
+        <v>-91.217500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>59685.044901</v>
+        <v>59685.044901000001</v>
       </c>
       <c r="AU7" s="1">
         <v>16.579179</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.772000</v>
+        <v>990.77200000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.891000</v>
+        <v>-108.89100000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>59696.532757</v>
+        <v>59696.532757000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.582370</v>
+        <v>16.582370000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.160000</v>
+        <v>999.16</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.484000</v>
+        <v>-124.48399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>59707.570198</v>
+        <v>59707.570198000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.585436</v>
+        <v>16.585436000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.380000</v>
+        <v>1038.3800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.898000</v>
+        <v>-195.898</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>59718.672647</v>
+        <v>59718.672646999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.588520</v>
+        <v>16.588519999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.660000</v>
+        <v>1105.6600000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.997000</v>
+        <v>-310.99700000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>59729.585625</v>
@@ -1961,542 +2377,542 @@
         <v>16.591552</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.150000</v>
+        <v>1214.1500000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-491.582000</v>
+        <v>-491.58199999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>59740.013515</v>
+        <v>59740.013514999999</v>
       </c>
       <c r="BT7" s="1">
         <v>16.594448</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.930000</v>
+        <v>1335.93</v>
       </c>
       <c r="BV7" s="1">
-        <v>-689.266000</v>
+        <v>-689.26599999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>59750.773349</v>
+        <v>59750.773349000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.597437</v>
+        <v>16.597436999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.200000</v>
+        <v>1471.2</v>
       </c>
       <c r="CA7" s="1">
-        <v>-898.862000</v>
+        <v>-898.86199999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>59762.602814</v>
+        <v>59762.602813999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.600723</v>
+        <v>16.600722999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1824.540000</v>
+        <v>1824.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1394.400000</v>
+        <v>-1394.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>59590.337566</v>
+        <v>59590.337566000002</v>
       </c>
       <c r="B8" s="1">
-        <v>16.552872</v>
+        <v>16.552872000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>901.246000</v>
+        <v>901.24599999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.171000</v>
+        <v>-198.17099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>59600.421969</v>
+        <v>59600.421969000003</v>
       </c>
       <c r="G8" s="1">
-        <v>16.555673</v>
+        <v>16.555672999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>918.594000</v>
+        <v>918.59400000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.493000</v>
+        <v>-167.49299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>59610.906870</v>
+        <v>59610.906869999999</v>
       </c>
       <c r="L8" s="1">
-        <v>16.558585</v>
+        <v>16.558585000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.456000</v>
+        <v>940.45600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.687000</v>
+        <v>-118.687</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>59621.441401</v>
+        <v>59621.441400999996</v>
       </c>
       <c r="Q8" s="1">
         <v>16.561512</v>
       </c>
       <c r="R8" s="1">
-        <v>946.976000</v>
+        <v>946.976</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.664000</v>
+        <v>-102.664</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>59632.297369</v>
       </c>
       <c r="V8" s="1">
-        <v>16.564527</v>
+        <v>16.564526999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>953.330000</v>
+        <v>953.33</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.958700</v>
+        <v>-87.958699999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>59642.783755</v>
+        <v>59642.783754999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.567440</v>
+        <v>16.567440000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.465000</v>
+        <v>960.46500000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.691200</v>
+        <v>-76.691199999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>59653.332671</v>
+        <v>59653.332670999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.570370</v>
+        <v>16.57037</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.264000</v>
+        <v>965.26400000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.721500</v>
+        <v>-74.721500000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>59663.802721</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.573279</v>
+        <v>16.573278999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.530000</v>
+        <v>972.53</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.543100</v>
+        <v>-79.543099999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>59674.481586</v>
+        <v>59674.481586000002</v>
       </c>
       <c r="AP8" s="1">
         <v>16.576245</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.747000</v>
+        <v>980.74699999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.187200</v>
+        <v>-91.187200000000004</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>59685.410436</v>
+        <v>59685.410435999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.579281</v>
+        <v>16.579281000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.788000</v>
+        <v>990.78800000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.907000</v>
+        <v>-108.907</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>59696.953333</v>
+        <v>59696.953332999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>16.582487</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.153000</v>
+        <v>999.15300000000002</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.518000</v>
+        <v>-124.518</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>59707.865815</v>
+        <v>59707.865814999997</v>
       </c>
       <c r="BE8" s="1">
         <v>16.585518</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.904000</v>
+        <v>-195.904</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>59719.044648</v>
+        <v>59719.044648000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.588624</v>
+        <v>16.588623999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.991000</v>
+        <v>-310.99099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>59730.006232</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.591668</v>
+        <v>16.591667999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-491.584000</v>
+        <v>-491.584</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>59740.447018</v>
+        <v>59740.447017999999</v>
       </c>
       <c r="BT8" s="1">
         <v>16.594569</v>
       </c>
       <c r="BU8" s="1">
-        <v>1335.970000</v>
+        <v>1335.97</v>
       </c>
       <c r="BV8" s="1">
-        <v>-689.159000</v>
+        <v>-689.15899999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>59751.197308</v>
+        <v>59751.197308000003</v>
       </c>
       <c r="BY8" s="1">
         <v>16.597555</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA8" s="1">
-        <v>-898.861000</v>
+        <v>-898.86099999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>59763.122658</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.600867</v>
+        <v>16.600867000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.720000</v>
+        <v>1823.72</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1395.450000</v>
+        <v>-1395.45</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>59590.679552</v>
+        <v>59590.679552000001</v>
       </c>
       <c r="B9" s="1">
-        <v>16.552967</v>
+        <v>16.552966999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>901.170000</v>
+        <v>901.17</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.228000</v>
+        <v>-198.22800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>59600.768147</v>
+        <v>59600.768147000003</v>
       </c>
       <c r="G9" s="1">
-        <v>16.555769</v>
+        <v>16.555769000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>918.440000</v>
+        <v>918.44</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.251000</v>
+        <v>-167.251</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>59611.564597</v>
+        <v>59611.564596999997</v>
       </c>
       <c r="L9" s="1">
-        <v>16.558768</v>
+        <v>16.558768000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>940.627000</v>
+        <v>940.62699999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.613000</v>
+        <v>-118.613</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>59622.102072</v>
+        <v>59622.102072000001</v>
       </c>
       <c r="Q9" s="1">
         <v>16.561695</v>
       </c>
       <c r="R9" s="1">
-        <v>946.914000</v>
+        <v>946.91399999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.645000</v>
+        <v>-102.645</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>59632.668380</v>
+        <v>59632.668380000003</v>
       </c>
       <c r="V9" s="1">
-        <v>16.564630</v>
+        <v>16.564630000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.407000</v>
+        <v>953.40700000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.981500</v>
+        <v>-87.981499999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>59643.132950</v>
+        <v>59643.132949999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.567537</v>
+        <v>16.567537000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.479000</v>
+        <v>960.47900000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.811700</v>
+        <v>-76.811700000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>59653.683869</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.570468</v>
+        <v>16.570468000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.268000</v>
+        <v>965.26800000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.681800</v>
+        <v>-74.681799999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>59664.149952</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.573375</v>
+        <v>16.573374999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.545000</v>
+        <v>972.54499999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.573800</v>
+        <v>-79.573800000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>59674.899219</v>
+        <v>59674.899218999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.576361</v>
+        <v>16.576360999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.746000</v>
+        <v>980.74599999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.226200</v>
+        <v>-91.226200000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>59685.833026</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.579398</v>
+        <v>16.579398000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.750000</v>
+        <v>990.75</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.908000</v>
+        <v>-108.908</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>59697.253907</v>
+        <v>59697.253906999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.582571</v>
+        <v>16.582571000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.168000</v>
+        <v>999.16800000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.510000</v>
+        <v>-124.51</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>59708.226441</v>
+        <v>59708.226440999999</v>
       </c>
       <c r="BE9" s="1">
         <v>16.585618</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.380000</v>
+        <v>1038.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.902000</v>
+        <v>-195.90199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>59719.424087</v>
+        <v>59719.424086999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.588729</v>
+        <v>16.588729000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.998000</v>
+        <v>-310.99799999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>59730.405512</v>
+        <v>59730.405511999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.591779</v>
+        <v>16.591778999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-491.591000</v>
+        <v>-491.59100000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>59740.867167</v>
+        <v>59740.867166999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.594685</v>
+        <v>16.594684999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1335.960000</v>
+        <v>1335.96</v>
       </c>
       <c r="BV9" s="1">
-        <v>-689.160000</v>
+        <v>-689.16</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>59751.621885</v>
@@ -2505,210 +2921,210 @@
         <v>16.597673</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="CA9" s="1">
-        <v>-898.843000</v>
+        <v>-898.84299999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>59763.642428</v>
+        <v>59763.642427999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.601012</v>
+        <v>16.601012000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1823.710000</v>
+        <v>1823.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1394.730000</v>
+        <v>-1394.73</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>59591.023248</v>
+        <v>59591.023247999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.553062</v>
+        <v>16.553062000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>901.242000</v>
+        <v>901.24199999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.094000</v>
+        <v>-198.09399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>59601.420033</v>
+        <v>59601.420033000002</v>
       </c>
       <c r="G10" s="1">
-        <v>16.555950</v>
+        <v>16.555949999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.861000</v>
+        <v>917.86099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.573000</v>
+        <v>-167.57300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>59611.929620</v>
+        <v>59611.929620000003</v>
       </c>
       <c r="L10" s="1">
-        <v>16.558869</v>
+        <v>16.558869000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.459000</v>
+        <v>940.45899999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.735000</v>
+        <v>-118.735</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>59622.487494</v>
+        <v>59622.487494000001</v>
       </c>
       <c r="Q10" s="1">
         <v>16.561802</v>
       </c>
       <c r="R10" s="1">
-        <v>946.943000</v>
+        <v>946.94299999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.626000</v>
+        <v>-102.626</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>59633.013596</v>
+        <v>59633.013595999997</v>
       </c>
       <c r="V10" s="1">
         <v>16.564726</v>
       </c>
       <c r="W10" s="1">
-        <v>953.550000</v>
+        <v>953.55</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.029800</v>
+        <v>-88.029799999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>59643.482831</v>
+        <v>59643.482831000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.567634</v>
+        <v>16.567634000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.529000</v>
+        <v>960.529</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.691600</v>
+        <v>-76.691599999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>59654.022109</v>
+        <v>59654.022108999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.570562</v>
+        <v>16.570561999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.179000</v>
+        <v>965.17899999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.590600</v>
+        <v>-74.590599999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>59664.563584</v>
+        <v>59664.563584000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.573490</v>
+        <v>16.57349</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.542000</v>
+        <v>972.54200000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.567600</v>
+        <v>-79.567599999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>59675.203793</v>
+        <v>59675.203793000001</v>
       </c>
       <c r="AP10" s="1">
         <v>16.576445</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.748000</v>
+        <v>980.74800000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.214800</v>
+        <v>-91.214799999999997</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>59686.139059</v>
+        <v>59686.139059000001</v>
       </c>
       <c r="AU10" s="1">
         <v>16.579483</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.758000</v>
+        <v>990.75800000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.892000</v>
+        <v>-108.892</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>59697.611524</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.582670</v>
+        <v>16.58267</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.161000</v>
+        <v>999.16099999999994</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.501000</v>
+        <v>-124.501</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>59708.587495</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.585719</v>
+        <v>16.585719000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.912000</v>
+        <v>-195.91200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>59719.796616</v>
@@ -2717,120 +3133,120 @@
         <v>16.588832</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.660000</v>
+        <v>1105.6600000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.006000</v>
+        <v>-311.00599999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>59730.825127</v>
+        <v>59730.825126999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.591896</v>
+        <v>16.591895999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-491.605000</v>
+        <v>-491.60500000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>59741.275340</v>
+        <v>59741.27534</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.594799</v>
+        <v>16.594798999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1335.950000</v>
+        <v>1335.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-689.095000</v>
+        <v>-689.09500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>59752.063819</v>
+        <v>59752.063819000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.597796</v>
+        <v>16.597795999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.080000</v>
+        <v>1471.08</v>
       </c>
       <c r="CA10" s="1">
-        <v>-898.903000</v>
+        <v>-898.90300000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>59764.205388</v>
+        <v>59764.205388000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.601168</v>
+        <v>16.601168000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.430000</v>
+        <v>1824.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1394.410000</v>
+        <v>-1394.41</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>59591.679454</v>
+        <v>59591.679453999997</v>
       </c>
       <c r="B11" s="1">
-        <v>16.553244</v>
+        <v>16.553243999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>901.172000</v>
+        <v>901.17200000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.184000</v>
+        <v>-198.184</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>59601.797345</v>
+        <v>59601.797344999999</v>
       </c>
       <c r="G11" s="1">
-        <v>16.556055</v>
+        <v>16.556055000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>918.146000</v>
+        <v>918.14599999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.305000</v>
+        <v>-167.30500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>59612.289251</v>
+        <v>59612.289251000002</v>
       </c>
       <c r="L11" s="1">
-        <v>16.558969</v>
+        <v>16.558969000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.510000</v>
+        <v>940.51</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.820000</v>
+        <v>-118.82</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>59622.837669</v>
@@ -2839,270 +3255,270 @@
         <v>16.561899</v>
       </c>
       <c r="R11" s="1">
-        <v>946.989000</v>
+        <v>946.98900000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.634000</v>
+        <v>-102.634</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>59633.356297</v>
+        <v>59633.356296999998</v>
       </c>
       <c r="V11" s="1">
-        <v>16.564821</v>
+        <v>16.564820999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>953.356000</v>
+        <v>953.35599999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.875700</v>
+        <v>-87.875699999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>59643.905743</v>
+        <v>59643.905743000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.567752</v>
+        <v>16.567751999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.489000</v>
+        <v>960.48900000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.612200</v>
+        <v>-76.612200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>59654.443213</v>
+        <v>59654.443212999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.570679</v>
+        <v>16.570678999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.168000</v>
+        <v>965.16800000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.690900</v>
+        <v>-74.690899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>59664.847594</v>
+        <v>59664.847593999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.573569</v>
+        <v>16.573568999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.533000</v>
+        <v>972.53300000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.544600</v>
+        <v>-79.544600000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>59675.563361</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.576545</v>
+        <v>16.576544999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.738000</v>
+        <v>980.73800000000006</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.203500</v>
+        <v>-91.203500000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>59686.502625</v>
+        <v>59686.502625000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.579584</v>
+        <v>16.579584000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.751000</v>
+        <v>990.75099999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.902000</v>
+        <v>-108.902</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>59697.970137</v>
+        <v>59697.970136999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.582769</v>
+        <v>16.582768999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.153000</v>
+        <v>999.15300000000002</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.506000</v>
+        <v>-124.506</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>59709.309681</v>
+        <v>59709.309680999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.585919</v>
+        <v>16.585919000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.900000</v>
+        <v>-195.9</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>59720.570341</v>
+        <v>59720.570340999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.589047</v>
+        <v>16.589047000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.980000</v>
+        <v>-310.98</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>59731.223447</v>
+        <v>59731.223446999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.592007</v>
+        <v>16.592006999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-491.588000</v>
+        <v>-491.58800000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>59741.693465</v>
+        <v>59741.693464999997</v>
       </c>
       <c r="BT11" s="1">
         <v>16.594915</v>
       </c>
       <c r="BU11" s="1">
-        <v>1335.980000</v>
+        <v>1335.98</v>
       </c>
       <c r="BV11" s="1">
-        <v>-689.072000</v>
+        <v>-689.072</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>59752.487931</v>
+        <v>59752.487931000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.597913</v>
+        <v>16.597912999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.140000</v>
+        <v>1471.14</v>
       </c>
       <c r="CA11" s="1">
-        <v>-898.838000</v>
+        <v>-898.83799999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>59765.036717</v>
+        <v>59765.036717000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.601399</v>
+        <v>16.601399000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1823.340000</v>
+        <v>1823.34</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1395.320000</v>
+        <v>-1395.32</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>59592.047488</v>
+        <v>59592.047487999997</v>
       </c>
       <c r="B12" s="1">
-        <v>16.553347</v>
+        <v>16.553346999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>901.239000</v>
+        <v>901.23900000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.303000</v>
+        <v>-198.303</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>59602.142597</v>
+        <v>59602.142596999998</v>
       </c>
       <c r="G12" s="1">
         <v>16.556151</v>
       </c>
       <c r="H12" s="1">
-        <v>918.519000</v>
+        <v>918.51900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.506000</v>
+        <v>-167.506</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>59612.632986</v>
+        <v>59612.632985999997</v>
       </c>
       <c r="L12" s="1">
         <v>16.559065</v>
       </c>
       <c r="M12" s="1">
-        <v>940.459000</v>
+        <v>940.45899999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.803000</v>
+        <v>-118.803</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>59623.188311</v>
+        <v>59623.188310999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.561997</v>
+        <v>16.561997000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>946.960000</v>
+        <v>946.96</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.679000</v>
+        <v>-102.679</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>59633.774459</v>
@@ -3111,103 +3527,103 @@
         <v>16.564937</v>
       </c>
       <c r="W12" s="1">
-        <v>953.248000</v>
+        <v>953.24800000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.005100</v>
+        <v>-88.005099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>59644.184457</v>
+        <v>59644.184457000003</v>
       </c>
       <c r="AA12" s="1">
         <v>16.567829</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.458000</v>
+        <v>960.45799999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.700800</v>
+        <v>-76.700800000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>59654.721467</v>
+        <v>59654.721467000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.570756</v>
+        <v>16.570755999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.233000</v>
+        <v>965.23299999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.668000</v>
+        <v>-74.668000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>59665.195521</v>
+        <v>59665.195521000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.573665</v>
+        <v>16.573664999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.530000</v>
+        <v>972.53</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.551500</v>
+        <v>-79.551500000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>59675.925478</v>
+        <v>59675.925477999997</v>
       </c>
       <c r="AP12" s="1">
         <v>16.576646</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.763000</v>
+        <v>980.76300000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.208500</v>
+        <v>-91.208500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>59686.868706</v>
+        <v>59686.868706000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.579686</v>
+        <v>16.579685999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.768000</v>
+        <v>990.76800000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.903000</v>
+        <v>-108.90300000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>59698.691840</v>
+        <v>59698.69184</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.582970</v>
+        <v>16.58297</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.173000</v>
+        <v>999.173</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.503000</v>
+        <v>-124.503</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>59709.667319</v>
@@ -3216,512 +3632,512 @@
         <v>16.586019</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.901000</v>
+        <v>-195.90100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>59720.944852</v>
+        <v>59720.944852000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.589151</v>
+        <v>16.589151000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.010000</v>
+        <v>-311.01</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>59731.644549</v>
+        <v>59731.644548999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.592123</v>
+        <v>16.592123000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-491.557000</v>
+        <v>-491.55700000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>59742.424072</v>
+        <v>59742.424072000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.595118</v>
+        <v>16.595117999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1335.940000</v>
+        <v>1335.94</v>
       </c>
       <c r="BV12" s="1">
-        <v>-688.989000</v>
+        <v>-688.98900000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>59753.218009</v>
+        <v>59753.218008999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.598116</v>
+        <v>16.598116000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA12" s="1">
-        <v>-898.859000</v>
+        <v>-898.85900000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>59765.272027</v>
+        <v>59765.272026999999</v>
       </c>
       <c r="CD12" s="1">
         <v>16.601464</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.240000</v>
+        <v>1825.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1395.700000</v>
+        <v>-1395.7</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>59592.391213</v>
+        <v>59592.391213000003</v>
       </c>
       <c r="B13" s="1">
         <v>16.553442</v>
       </c>
       <c r="C13" s="1">
-        <v>901.293000</v>
+        <v>901.29300000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.245000</v>
+        <v>-198.245</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>59602.487313</v>
+        <v>59602.487312999998</v>
       </c>
       <c r="G13" s="1">
-        <v>16.556246</v>
+        <v>16.556246000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>918.111000</v>
+        <v>918.11099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.400000</v>
+        <v>-167.4</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>59613.064963</v>
+        <v>59613.064962999997</v>
       </c>
       <c r="L13" s="1">
-        <v>16.559185</v>
+        <v>16.559184999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.603000</v>
+        <v>940.60299999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.606000</v>
+        <v>-118.60599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>59623.602468</v>
+        <v>59623.602467999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.562112</v>
+        <v>16.562111999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.976000</v>
+        <v>946.976</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.679000</v>
+        <v>-102.679</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>59634.049238</v>
       </c>
       <c r="V13" s="1">
-        <v>16.565014</v>
+        <v>16.565014000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.349000</v>
+        <v>953.34900000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.020300</v>
+        <v>-88.020300000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>59644.533673</v>
+        <v>59644.533672999998</v>
       </c>
       <c r="AA13" s="1">
         <v>16.567926</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.516000</v>
+        <v>960.51599999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.675800</v>
+        <v>-76.675799999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>59655.066224</v>
+        <v>59655.066224000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.570852</v>
+        <v>16.570851999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.260000</v>
+        <v>965.26</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.641800</v>
+        <v>-74.641800000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>59665.546192</v>
+        <v>59665.546192000002</v>
       </c>
       <c r="AK13" s="1">
         <v>16.573763</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.529000</v>
+        <v>972.529</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.533900</v>
+        <v>-79.533900000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>59676.643678</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.576845</v>
+        <v>16.576844999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.751000</v>
+        <v>980.75099999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.205500</v>
+        <v>-91.205500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>59687.598785</v>
+        <v>59687.598785000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.579889</v>
+        <v>16.579889000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.757000</v>
+        <v>990.75699999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.897000</v>
+        <v>-108.89700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>59699.066324</v>
+        <v>59699.066323999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>16.583074</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.181000</v>
+        <v>999.18100000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.519000</v>
+        <v>-124.51900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>59710.032834</v>
+        <v>59710.032833999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.586120</v>
+        <v>16.586120000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.907000</v>
+        <v>-195.90700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>59721.323796</v>
+        <v>59721.323795999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.589257</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.985000</v>
+        <v>-310.98500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>59732.351813</v>
+        <v>59732.351813000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.592320</v>
+        <v>16.592320000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-491.594000</v>
+        <v>-491.59399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>59742.545623</v>
+        <v>59742.545622999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.595152</v>
+        <v>16.595151999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.880000</v>
+        <v>1335.88</v>
       </c>
       <c r="BV13" s="1">
-        <v>-688.902000</v>
+        <v>-688.90200000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>59753.388665</v>
+        <v>59753.388664999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.598164</v>
+        <v>16.598164000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.200000</v>
+        <v>1471.2</v>
       </c>
       <c r="CA13" s="1">
-        <v>-898.904000</v>
+        <v>-898.904</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>59765.820858</v>
+        <v>59765.820857999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.601617</v>
+        <v>16.601617000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.520000</v>
+        <v>1824.52</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1394.530000</v>
+        <v>-1394.53</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>59592.801901</v>
+        <v>59592.801900999999</v>
       </c>
       <c r="B14" s="1">
         <v>16.553556</v>
       </c>
       <c r="C14" s="1">
-        <v>901.077000</v>
+        <v>901.077</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.324000</v>
+        <v>-198.32400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>59602.921280</v>
+        <v>59602.921280000002</v>
       </c>
       <c r="G14" s="1">
-        <v>16.556367</v>
+        <v>16.556367000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>918.256000</v>
+        <v>918.25599999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.318000</v>
+        <v>-167.31800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>59613.344210</v>
+        <v>59613.344210000003</v>
       </c>
       <c r="L14" s="1">
         <v>16.559262</v>
       </c>
       <c r="M14" s="1">
-        <v>940.466000</v>
+        <v>940.46600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.614000</v>
+        <v>-118.614</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>59623.889652</v>
+        <v>59623.889651999998</v>
       </c>
       <c r="Q14" s="1">
         <v>16.562192</v>
       </c>
       <c r="R14" s="1">
-        <v>946.959000</v>
+        <v>946.95899999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.672000</v>
+        <v>-102.672</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>59634.391446</v>
+        <v>59634.391446000001</v>
       </c>
       <c r="V14" s="1">
         <v>16.565109</v>
       </c>
       <c r="W14" s="1">
-        <v>953.403000</v>
+        <v>953.40300000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.932600</v>
+        <v>-87.932599999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>59644.882709</v>
+        <v>59644.882708999998</v>
       </c>
       <c r="AA14" s="1">
         <v>16.568023</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.532000</v>
+        <v>960.53200000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.690000</v>
+        <v>-76.69</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>59655.409420</v>
+        <v>59655.409420000004</v>
       </c>
       <c r="AF14" s="1">
         <v>16.570947</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.202000</v>
+        <v>965.202</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.637800</v>
+        <v>-74.637799999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>59666.242076</v>
+        <v>59666.242076000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.573956</v>
+        <v>16.573955999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.536000</v>
+        <v>972.53599999999994</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.564000</v>
+        <v>-79.563999999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>59677.004766</v>
+        <v>59677.004765999998</v>
       </c>
       <c r="AP14" s="1">
         <v>16.576946</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.741000</v>
+        <v>980.74099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.198600</v>
+        <v>-91.198599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>59687.961360</v>
+        <v>59687.961360000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.579989</v>
+        <v>16.579989000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.776000</v>
+        <v>990.77599999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.899000</v>
+        <v>-108.899</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>59699.445233</v>
+        <v>59699.445232999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.583179</v>
+        <v>16.583179000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.153000</v>
+        <v>999.15300000000002</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.515000</v>
+        <v>-124.515</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>59710.699986</v>
@@ -3730,195 +4146,195 @@
         <v>16.586306</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.410000</v>
+        <v>1038.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.913000</v>
+        <v>-195.91300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>59721.990883</v>
+        <v>59721.990882999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.589442</v>
+        <v>16.589441999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.660000</v>
+        <v>1105.6600000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.010000</v>
+        <v>-311.01</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>59732.476308</v>
+        <v>59732.476307999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.592355</v>
+        <v>16.592355000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-491.575000</v>
+        <v>-491.57499999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>59742.983591</v>
+        <v>59742.983590999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.595273</v>
+        <v>16.595272999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.890000</v>
+        <v>1335.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-688.904000</v>
+        <v>-688.904</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>59753.815689</v>
+        <v>59753.815689000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.598282</v>
+        <v>16.598282000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.130000</v>
+        <v>1471.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-899.051000</v>
+        <v>-899.05100000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>59766.346616</v>
+        <v>59766.346616000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.601763</v>
+        <v>16.601762999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1824.250000</v>
+        <v>1824.25</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1396.140000</v>
+        <v>-1396.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>59593.094046</v>
+        <v>59593.094045999998</v>
       </c>
       <c r="B15" s="1">
-        <v>16.553637</v>
+        <v>16.553636999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>901.253000</v>
+        <v>901.25300000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.132000</v>
+        <v>-198.13200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>59603.196559</v>
+        <v>59603.196559000004</v>
       </c>
       <c r="G15" s="1">
-        <v>16.556443</v>
+        <v>16.556443000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>918.056000</v>
+        <v>918.05600000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.277000</v>
+        <v>-167.27699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>59613.691411</v>
       </c>
       <c r="L15" s="1">
-        <v>16.559359</v>
+        <v>16.559359000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>940.334000</v>
+        <v>940.33399999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.699000</v>
+        <v>-118.699</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>59624.236357</v>
+        <v>59624.236357000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.562288</v>
+        <v>16.562287999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.941000</v>
+        <v>946.94100000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>59634.736695</v>
       </c>
       <c r="V15" s="1">
-        <v>16.565205</v>
+        <v>16.565204999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>953.379000</v>
+        <v>953.37900000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.972600</v>
+        <v>-87.9726</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>59645.580236</v>
+        <v>59645.580236000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.568217</v>
+        <v>16.568217000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.540000</v>
+        <v>960.54</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.706300</v>
+        <v>-76.706299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>59656.096874</v>
+        <v>59656.096874000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.571138</v>
+        <v>16.571138000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.223000</v>
+        <v>965.22299999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.672100</v>
+        <v>-74.6721</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>59666.594243</v>
@@ -3927,270 +4343,270 @@
         <v>16.574054</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.551000</v>
+        <v>972.55100000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.581600</v>
+        <v>-79.581599999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>59677.363355</v>
+        <v>59677.363355000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.577045</v>
+        <v>16.577044999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.739000</v>
+        <v>980.73900000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.213700</v>
+        <v>-91.213700000000003</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>59688.327444</v>
+        <v>59688.327444000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.580091</v>
+        <v>16.580090999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.752000</v>
+        <v>990.75199999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.888000</v>
+        <v>-108.88800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>59700.117343</v>
+        <v>59700.117342999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.583366</v>
+        <v>16.583366000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.150000</v>
+        <v>999.15</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.508000</v>
+        <v>-124.508</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>59711.144405</v>
+        <v>59711.144404999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.586429</v>
+        <v>16.586428999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.914000</v>
+        <v>-195.91399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>59722.121332</v>
+        <v>59722.121332000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>16.589478</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.620000</v>
+        <v>1105.6199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.019000</v>
+        <v>-311.01900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>59732.886041</v>
+        <v>59732.886040999998</v>
       </c>
       <c r="BO15" s="1">
         <v>16.592468</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.080000</v>
+        <v>1214.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-491.577000</v>
+        <v>-491.577</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>59743.411607</v>
+        <v>59743.411607000002</v>
       </c>
       <c r="BT15" s="1">
         <v>16.595392</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.830000</v>
+        <v>1335.83</v>
       </c>
       <c r="BV15" s="1">
-        <v>-688.848000</v>
+        <v>-688.84799999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>59754.231833</v>
+        <v>59754.231832999998</v>
       </c>
       <c r="BY15" s="1">
         <v>16.598398</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.090000</v>
+        <v>1471.09</v>
       </c>
       <c r="CA15" s="1">
-        <v>-898.860000</v>
+        <v>-898.86</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>59766.888552</v>
+        <v>59766.888551999997</v>
       </c>
       <c r="CD15" s="1">
         <v>16.601913</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.090000</v>
+        <v>1825.09</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1395.020000</v>
+        <v>-1395.02</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>59593.434300</v>
+        <v>59593.434300000001</v>
       </c>
       <c r="B16" s="1">
         <v>16.553732</v>
       </c>
       <c r="C16" s="1">
-        <v>901.174000</v>
+        <v>901.17399999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.012000</v>
+        <v>-198.012</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59603.545743</v>
+        <v>59603.545743000002</v>
       </c>
       <c r="G16" s="1">
-        <v>16.556540</v>
+        <v>16.556539999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>918.212000</v>
+        <v>918.21199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.306000</v>
+        <v>-167.30600000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>59614.037619</v>
+        <v>59614.037619000002</v>
       </c>
       <c r="L16" s="1">
         <v>16.559455</v>
       </c>
       <c r="M16" s="1">
-        <v>940.591000</v>
+        <v>940.59100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.507000</v>
+        <v>-118.50700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>59624.914915</v>
+        <v>59624.914915000001</v>
       </c>
       <c r="Q16" s="1">
         <v>16.562476</v>
       </c>
       <c r="R16" s="1">
-        <v>946.998000</v>
+        <v>946.99800000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.657000</v>
+        <v>-102.657</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>59635.422134</v>
       </c>
       <c r="V16" s="1">
-        <v>16.565395</v>
+        <v>16.565394999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.465000</v>
+        <v>953.46500000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.850200</v>
+        <v>-87.850200000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>59645.928887</v>
+        <v>59645.928887000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.568314</v>
+        <v>16.568314000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.494000</v>
+        <v>960.49400000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.622200</v>
+        <v>-76.622200000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>59656.439649</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.571233</v>
+        <v>16.571232999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.221000</v>
+        <v>965.221</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.656800</v>
+        <v>-74.656800000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>59666.938459</v>
+        <v>59666.938458999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.574150</v>
+        <v>16.574149999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.549000</v>
+        <v>972.54899999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.552600</v>
+        <v>-79.552599999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>59678.038429</v>
@@ -4199,650 +4615,650 @@
         <v>16.577233</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.749000</v>
+        <v>980.74900000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.222300</v>
+        <v>-91.222300000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>59688.998000</v>
+        <v>59688.998</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.580277</v>
+        <v>16.580276999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.758000</v>
+        <v>990.75800000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.911000</v>
+        <v>-108.911</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>59700.527999</v>
+        <v>59700.527998999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.583480</v>
+        <v>16.583480000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.157000</v>
+        <v>999.15700000000004</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.525000</v>
+        <v>-124.52500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>59711.501490</v>
+        <v>59711.501490000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.586528</v>
+        <v>16.586528000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.908000</v>
+        <v>-195.90799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>59722.475975</v>
+        <v>59722.475975000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.589577</v>
+        <v>16.589576999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.015000</v>
+        <v>-311.01499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>59733.281812</v>
+        <v>59733.281812000001</v>
       </c>
       <c r="BO16" s="1">
         <v>16.592578</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-491.619000</v>
+        <v>-491.61900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>59743.836678</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.595510</v>
+        <v>16.595510000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-688.885000</v>
+        <v>-688.88499999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>59754.680257</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.598522</v>
+        <v>16.598521999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.120000</v>
+        <v>1471.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-898.994000</v>
+        <v>-898.99400000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>59767.429879</v>
+        <v>59767.429879000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.602064</v>
+        <v>16.602063999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1823.600000</v>
+        <v>1823.6</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1395.150000</v>
+        <v>-1395.15</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>59593.777565</v>
+        <v>59593.777564999997</v>
       </c>
       <c r="B17" s="1">
-        <v>16.553827</v>
+        <v>16.553826999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>901.264000</v>
+        <v>901.26400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.186000</v>
+        <v>-198.18600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>59603.889471</v>
+        <v>59603.889471000002</v>
       </c>
       <c r="G17" s="1">
-        <v>16.556636</v>
+        <v>16.556636000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>918.349000</v>
+        <v>918.34900000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.476000</v>
+        <v>-167.476</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>59614.732544</v>
+        <v>59614.732543999999</v>
       </c>
       <c r="L17" s="1">
-        <v>16.559648</v>
+        <v>16.559647999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.502000</v>
+        <v>940.50199999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.649000</v>
+        <v>-118.649</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>59625.282916</v>
+        <v>59625.282915999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.562579</v>
+        <v>16.562578999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.986000</v>
+        <v>946.98599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.667000</v>
+        <v>-102.667</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>59635.765887</v>
+        <v>59635.765887000001</v>
       </c>
       <c r="V17" s="1">
-        <v>16.565491</v>
+        <v>16.565491000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>953.473000</v>
+        <v>953.47299999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.869700</v>
+        <v>-87.869699999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>59646.273639</v>
+        <v>59646.273638999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.568409</v>
+        <v>16.568408999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.472000</v>
+        <v>960.47199999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.654800</v>
+        <v>-76.654799999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>59656.783833</v>
+        <v>59656.783833000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.571329</v>
+        <v>16.571328999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.246000</v>
+        <v>965.24599999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.675800</v>
+        <v>-74.675799999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>59667.596122</v>
+        <v>59667.596122000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.574332</v>
+        <v>16.574331999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.547000</v>
+        <v>972.54700000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.525200</v>
+        <v>-79.525199999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>59678.459500</v>
+        <v>59678.459499999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.577350</v>
+        <v>16.577349999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.737000</v>
+        <v>980.73699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.212400</v>
+        <v>-91.212400000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>59689.420591</v>
+        <v>59689.420591000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.580395</v>
+        <v>16.580394999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.766000</v>
+        <v>990.76599999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.919000</v>
+        <v>-108.919</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>59700.904499</v>
+        <v>59700.904498999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.583585</v>
+        <v>16.583584999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.176000</v>
+        <v>999.17600000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.489000</v>
+        <v>-124.489</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>59711.864096</v>
+        <v>59711.864095999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.586629</v>
+        <v>16.586628999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.410000</v>
+        <v>1038.4100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.915000</v>
+        <v>-195.91499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>59722.850947</v>
+        <v>59722.850946999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.589681</v>
+        <v>16.589680999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.999000</v>
+        <v>-310.99900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>59733.715316</v>
+        <v>59733.715316000002</v>
       </c>
       <c r="BO17" s="1">
         <v>16.592699</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.170000</v>
+        <v>1214.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-491.625000</v>
+        <v>-491.625</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>59744.253843</v>
+        <v>59744.253842999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.595626</v>
+        <v>16.595625999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-688.809000</v>
+        <v>-688.80899999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>59755.102807</v>
+        <v>59755.102807000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.598640</v>
+        <v>16.59864</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-898.827000</v>
+        <v>-898.827</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>59767.967542</v>
+        <v>59767.967541999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.602213</v>
+        <v>16.602212999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1825.460000</v>
+        <v>1825.46</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1395.550000</v>
+        <v>-1395.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>59594.460039</v>
+        <v>59594.460038999998</v>
       </c>
       <c r="B18" s="1">
-        <v>16.554017</v>
+        <v>16.554017000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>901.209000</v>
+        <v>901.20899999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.079000</v>
+        <v>-198.07900000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>59604.578453</v>
+        <v>59604.578453000002</v>
       </c>
       <c r="G18" s="1">
-        <v>16.556827</v>
+        <v>16.556826999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>917.674000</v>
+        <v>917.67399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.438000</v>
+        <v>-167.43799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>59615.084176</v>
+        <v>59615.084175999997</v>
       </c>
       <c r="L18" s="1">
-        <v>16.559746</v>
+        <v>16.559746000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.467000</v>
+        <v>940.46699999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.630000</v>
+        <v>-118.63</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>59625.631634</v>
+        <v>59625.631633999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.562675</v>
+        <v>16.562674999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.018000</v>
+        <v>947.01800000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.658000</v>
+        <v>-102.658</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>59636.109590</v>
+        <v>59636.10959</v>
       </c>
       <c r="V18" s="1">
         <v>16.565586</v>
       </c>
       <c r="W18" s="1">
-        <v>953.300000</v>
+        <v>953.3</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.047500</v>
+        <v>-88.047499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>59646.930342</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.568592</v>
+        <v>16.568591999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.468000</v>
+        <v>960.46799999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.697400</v>
+        <v>-76.697400000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>59657.438584</v>
+        <v>59657.438584000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.571511</v>
+        <v>16.571511000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.229000</v>
+        <v>965.22900000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.625300</v>
+        <v>-74.625299999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>59667.986475</v>
+        <v>59667.986474999998</v>
       </c>
       <c r="AK18" s="1">
         <v>16.574441</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.541000</v>
+        <v>972.54100000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.545600</v>
+        <v>-79.545599999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>59678.825089</v>
+        <v>59678.825088999998</v>
       </c>
       <c r="AP18" s="1">
         <v>16.577451</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.774000</v>
+        <v>980.774</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.204500</v>
+        <v>-91.204499999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>59689.786637</v>
+        <v>59689.786636999997</v>
       </c>
       <c r="AU18" s="1">
         <v>16.580496</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.748000</v>
+        <v>990.74800000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.891000</v>
+        <v>-108.89100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>59701.284894</v>
+        <v>59701.284893999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.583690</v>
+        <v>16.583690000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.162000</v>
+        <v>999.16200000000003</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.515000</v>
+        <v>-124.515</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>59712.287677</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.586747</v>
+        <v>16.586746999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.906000</v>
+        <v>-195.90600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>59723.325616</v>
+        <v>59723.325616000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.589813</v>
+        <v>16.589812999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.000000</v>
+        <v>-311</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>59734.099749</v>
+        <v>59734.099749000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.592805</v>
+        <v>16.592804999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-491.647000</v>
+        <v>-491.64699999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>59744.678885</v>
+        <v>59744.678885000001</v>
       </c>
       <c r="BT18" s="1">
         <v>16.595744</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.550000</v>
+        <v>1335.55</v>
       </c>
       <c r="BV18" s="1">
-        <v>-688.867000</v>
+        <v>-688.86699999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>59755.524904</v>
+        <v>59755.524903999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.598757</v>
+        <v>16.598756999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.180000</v>
+        <v>1471.18</v>
       </c>
       <c r="CA18" s="1">
-        <v>-898.950000</v>
+        <v>-898.95</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>59768.507191</v>
+        <v>59768.507190999997</v>
       </c>
       <c r="CD18" s="1">
         <v>16.602363</v>
       </c>
       <c r="CE18" s="1">
-        <v>1824.220000</v>
+        <v>1824.22</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1394.620000</v>
+        <v>-1394.62</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>59594.803817</v>
       </c>
@@ -4850,28 +5266,28 @@
         <v>16.554112</v>
       </c>
       <c r="C19" s="1">
-        <v>901.229000</v>
+        <v>901.22900000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.204000</v>
+        <v>-198.20400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>59604.922637</v>
+        <v>59604.922637000003</v>
       </c>
       <c r="G19" s="1">
-        <v>16.556923</v>
+        <v>16.556923000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>918.360000</v>
+        <v>918.36</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.119000</v>
+        <v>-167.119</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>59615.431376</v>
@@ -4880,58 +5296,58 @@
         <v>16.559842</v>
       </c>
       <c r="M19" s="1">
-        <v>940.471000</v>
+        <v>940.471</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.555000</v>
+        <v>-118.55500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>59626.298721</v>
+        <v>59626.298720999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.562861</v>
+        <v>16.562861000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>946.940000</v>
+        <v>946.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.641000</v>
+        <v>-102.64100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>59636.757363</v>
+        <v>59636.757362999997</v>
       </c>
       <c r="V19" s="1">
         <v>16.565766</v>
       </c>
       <c r="W19" s="1">
-        <v>953.272000</v>
+        <v>953.27200000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.823100</v>
+        <v>-87.823099999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>59647.331586</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.568703</v>
+        <v>16.568702999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.710300</v>
+        <v>-76.710300000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>59657.812048</v>
@@ -4940,497 +5356,497 @@
         <v>16.571614</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.215000</v>
+        <v>965.21500000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.659100</v>
+        <v>-74.659099999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>59668.335198</v>
+        <v>59668.335198000001</v>
       </c>
       <c r="AK19" s="1">
         <v>16.574538</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.544000</v>
+        <v>972.54399999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.543000</v>
+        <v>-79.543000000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>59679.184652</v>
+        <v>59679.184652000004</v>
       </c>
       <c r="AP19" s="1">
         <v>16.577551</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.726000</v>
+        <v>980.726</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.197900</v>
+        <v>-91.197900000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>59690.156694</v>
+        <v>59690.156693999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.580599</v>
+        <v>16.580598999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.761000</v>
+        <v>990.76099999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.911000</v>
+        <v>-108.911</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>59701.718398</v>
+        <v>59701.718397999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.583811</v>
+        <v>16.583811000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.165000</v>
+        <v>999.16499999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.519000</v>
+        <v>-124.51900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>59712.586240</v>
+        <v>59712.586239999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.586830</v>
+        <v>16.586829999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.380000</v>
+        <v>1038.3800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.917000</v>
+        <v>-195.917</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>59723.630656</v>
+        <v>59723.630656000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.589897</v>
+        <v>16.589897000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.978000</v>
+        <v>-310.97800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>59734.520356</v>
+        <v>59734.520356000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.592922</v>
+        <v>16.592922000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-491.605000</v>
+        <v>-491.60500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>59745.095057</v>
+        <v>59745.095056999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.595860</v>
+        <v>16.595859999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.510000</v>
+        <v>1335.51</v>
       </c>
       <c r="BV19" s="1">
-        <v>-688.914000</v>
+        <v>-688.91399999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>59756.319035</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.598978</v>
+        <v>16.598977999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.150000</v>
+        <v>1471.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-898.970000</v>
+        <v>-898.97</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>59769.048325</v>
+        <v>59769.048325000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.602513</v>
+        <v>16.602512999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.530000</v>
+        <v>1824.53</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1395.970000</v>
+        <v>-1395.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>59595.144010</v>
+        <v>59595.144010000004</v>
       </c>
       <c r="B20" s="1">
-        <v>16.554207</v>
+        <v>16.554207000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>901.202000</v>
+        <v>901.202</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.235000</v>
+        <v>-198.23500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>59605.267356</v>
+        <v>59605.267355999997</v>
       </c>
       <c r="G20" s="1">
         <v>16.557019</v>
       </c>
       <c r="H20" s="1">
-        <v>918.565000</v>
+        <v>918.56500000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.454000</v>
+        <v>-167.45400000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>59616.081166</v>
+        <v>59616.081166000004</v>
       </c>
       <c r="L20" s="1">
-        <v>16.560023</v>
+        <v>16.560023000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.380000</v>
+        <v>940.38</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.578000</v>
+        <v>-118.578</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>59626.675186</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.562965</v>
+        <v>16.562964999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>946.944000</v>
+        <v>946.94399999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.641000</v>
+        <v>-102.64100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>59637.139779</v>
+        <v>59637.139778999997</v>
       </c>
       <c r="V20" s="1">
-        <v>16.565872</v>
+        <v>16.565871999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.416000</v>
+        <v>953.41600000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.863900</v>
+        <v>-87.863900000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>59647.670836</v>
+        <v>59647.670835999998</v>
       </c>
       <c r="AA20" s="1">
         <v>16.568797</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.452000</v>
+        <v>960.452</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.754400</v>
+        <v>-76.754400000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>59658.155767</v>
+        <v>59658.155766999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.571710</v>
+        <v>16.571709999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.221000</v>
+        <v>965.221</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.653100</v>
+        <v>-74.653099999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>59668.685338</v>
+        <v>59668.685338000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.574635</v>
+        <v>16.574635000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.541000</v>
+        <v>972.54100000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.534800</v>
+        <v>-79.534800000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>59679.614683</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.577671</v>
+        <v>16.577670999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.758000</v>
+        <v>980.75800000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.200400</v>
+        <v>-91.200400000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>59690.879820</v>
+        <v>59690.879820000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.580800</v>
+        <v>16.5808</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.743000</v>
+        <v>990.74300000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.909000</v>
+        <v>-108.90900000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>59702.002110</v>
+        <v>59702.002110000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.583889</v>
+        <v>16.583888999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.175000</v>
+        <v>999.17499999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.512000</v>
+        <v>-124.512</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>59712.947328</v>
+        <v>59712.947328000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.586930</v>
+        <v>16.586929999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.930000</v>
+        <v>-195.93</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>59724.001696</v>
+        <v>59724.001695999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.590000</v>
+        <v>16.59</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.660000</v>
+        <v>1105.6600000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.043000</v>
+        <v>-311.04300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>59734.918642</v>
+        <v>59734.918641999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.593033</v>
+        <v>16.593032999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-491.600000</v>
+        <v>-491.6</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>59745.522612</v>
+        <v>59745.522612000001</v>
       </c>
       <c r="BT20" s="1">
         <v>16.595979</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.410000</v>
+        <v>1335.41</v>
       </c>
       <c r="BV20" s="1">
-        <v>-688.932000</v>
+        <v>-688.93200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>59756.844758</v>
+        <v>59756.844757999999</v>
       </c>
       <c r="BY20" s="1">
         <v>16.599124</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-898.876000</v>
+        <v>-898.87599999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>59769.585492</v>
+        <v>59769.585491999998</v>
       </c>
       <c r="CD20" s="1">
         <v>16.602663</v>
       </c>
       <c r="CE20" s="1">
-        <v>1824.860000</v>
+        <v>1824.86</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1394.680000</v>
+        <v>-1394.68</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>59595.799721</v>
+        <v>59595.799721000003</v>
       </c>
       <c r="B21" s="1">
         <v>16.554389</v>
       </c>
       <c r="C21" s="1">
-        <v>901.232000</v>
+        <v>901.23199999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.090000</v>
+        <v>-198.09</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>59605.927533</v>
+        <v>59605.927533000002</v>
       </c>
       <c r="G21" s="1">
         <v>16.557202</v>
       </c>
       <c r="H21" s="1">
-        <v>918.312000</v>
+        <v>918.31200000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.581000</v>
+        <v>-167.58099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>59616.466526</v>
+        <v>59616.466525999997</v>
       </c>
       <c r="L21" s="1">
-        <v>16.560130</v>
+        <v>16.560130000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>940.434000</v>
+        <v>940.43399999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.680000</v>
+        <v>-118.68</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>59627.021392</v>
+        <v>59627.021392000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.563061</v>
+        <v>16.563061000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.978000</v>
+        <v>946.97799999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.644000</v>
+        <v>-102.64400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>59637.483332</v>
+        <v>59637.483332000003</v>
       </c>
       <c r="V21" s="1">
-        <v>16.565968</v>
+        <v>16.565968000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>953.302000</v>
+        <v>953.30200000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.937800</v>
+        <v>-87.937799999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>59648.019536</v>
@@ -5439,133 +5855,133 @@
         <v>16.568894</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.511000</v>
+        <v>960.51099999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.748000</v>
+        <v>-76.748000000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>59658.576406</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.571827</v>
+        <v>16.571826999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.233000</v>
+        <v>965.23299999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.675500</v>
+        <v>-74.6755</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>59669.110450</v>
+        <v>59669.11045</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.574753</v>
+        <v>16.574753000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.533000</v>
+        <v>972.53300000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.541900</v>
+        <v>-79.541899999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>59679.905836</v>
+        <v>59679.905835999998</v>
       </c>
       <c r="AP21" s="1">
         <v>16.577752</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.747000</v>
+        <v>980.74699999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.211500</v>
+        <v>-91.211500000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>59691.269677</v>
+        <v>59691.269676999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.580908</v>
+        <v>16.580908000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.775000</v>
+        <v>990.77499999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.881000</v>
+        <v>-108.881</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>59702.363230</v>
+        <v>59702.363230000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.583990</v>
+        <v>16.58399</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.159000</v>
+        <v>999.15899999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.503000</v>
+        <v>-124.503</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>59713.309406</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.587030</v>
+        <v>16.587029999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.931000</v>
+        <v>-195.93100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>59724.749663</v>
+        <v>59724.749663000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.590208</v>
+        <v>16.590208000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.984000</v>
+        <v>-310.98399999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>59735.335249</v>
+        <v>59735.335249000003</v>
       </c>
       <c r="BO21" s="1">
         <v>16.593149</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-491.631000</v>
+        <v>-491.63099999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>59745.949171</v>
@@ -5574,13 +5990,13 @@
         <v>16.596097</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.380000</v>
+        <v>1335.38</v>
       </c>
       <c r="BV21" s="1">
-        <v>-688.960000</v>
+        <v>-688.96</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>59757.272804</v>
@@ -5589,392 +6005,392 @@
         <v>16.599242</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.140000</v>
+        <v>1471.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-898.938000</v>
+        <v>-898.93799999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>59770.128611</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.602814</v>
+        <v>16.602813999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1823.490000</v>
+        <v>1823.49</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1395.240000</v>
+        <v>-1395.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>59596.168249</v>
+        <v>59596.168249000002</v>
       </c>
       <c r="B22" s="1">
-        <v>16.554491</v>
+        <v>16.554490999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>901.248000</v>
+        <v>901.24800000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.338000</v>
+        <v>-198.33799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>59606.302021</v>
+        <v>59606.302021000003</v>
       </c>
       <c r="G22" s="1">
-        <v>16.557306</v>
+        <v>16.557306000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.391000</v>
+        <v>918.39099999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.149000</v>
+        <v>-167.149</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>59616.809263</v>
+        <v>59616.809263000003</v>
       </c>
       <c r="L22" s="1">
-        <v>16.560225</v>
+        <v>16.560224999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>940.580000</v>
+        <v>940.58</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.712000</v>
+        <v>-118.712</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>59627.376063</v>
+        <v>59627.376063000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.563160</v>
+        <v>16.56316</v>
       </c>
       <c r="R22" s="1">
-        <v>946.974000</v>
+        <v>946.97400000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.666000</v>
+        <v>-102.666</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>59637.833186</v>
+        <v>59637.833186000003</v>
       </c>
       <c r="V22" s="1">
-        <v>16.566065</v>
+        <v>16.566064999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>953.236000</v>
+        <v>953.23599999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.989700</v>
+        <v>-87.989699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>59648.444132</v>
+        <v>59648.444131999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.569012</v>
+        <v>16.569012000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.441000</v>
+        <v>960.44100000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.736800</v>
+        <v>-76.736800000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>59658.847190</v>
+        <v>59658.84719</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.571902</v>
+        <v>16.571902000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.235000</v>
+        <v>965.23500000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.652100</v>
+        <v>-74.652100000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>59669.391145</v>
+        <v>59669.391145000001</v>
       </c>
       <c r="AK22" s="1">
         <v>16.574831</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.542000</v>
+        <v>972.54200000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.542400</v>
+        <v>-79.542400000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>59680.266453</v>
+        <v>59680.266452999997</v>
       </c>
       <c r="AP22" s="1">
         <v>16.577852</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.752000</v>
+        <v>980.75199999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.181900</v>
+        <v>-91.181899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>59691.638203</v>
+        <v>59691.638203000002</v>
       </c>
       <c r="AU22" s="1">
         <v>16.581011</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.765000</v>
+        <v>990.76499999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.901000</v>
+        <v>-108.901</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>59702.718829</v>
+        <v>59702.718828999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.584089</v>
+        <v>16.584088999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.163000</v>
+        <v>999.16300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.507000</v>
+        <v>-124.50700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>59714.032077</v>
+        <v>59714.032077000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.587231</v>
+        <v>16.587230999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.380000</v>
+        <v>1038.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.912000</v>
+        <v>-195.91200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>59725.154862</v>
+        <v>59725.154862000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.590321</v>
+        <v>16.590320999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.013000</v>
+        <v>-311.01299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>59735.735026</v>
+        <v>59735.735026000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.593260</v>
+        <v>16.593260000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.130000</v>
+        <v>1214.1300000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-491.622000</v>
+        <v>-491.62200000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>59746.363794</v>
+        <v>59746.363793999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.596212</v>
+        <v>16.596212000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.420000</v>
+        <v>1335.42</v>
       </c>
       <c r="BV22" s="1">
-        <v>-689.026000</v>
+        <v>-689.02599999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>59758.004404</v>
+        <v>59758.004403999999</v>
       </c>
       <c r="BY22" s="1">
         <v>16.599446</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.150000</v>
+        <v>1471.15</v>
       </c>
       <c r="CA22" s="1">
-        <v>-898.936000</v>
+        <v>-898.93600000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>59770.977266</v>
+        <v>59770.977266000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.603049</v>
+        <v>16.603048999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1824.640000</v>
+        <v>1824.64</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1394.460000</v>
+        <v>-1394.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>59596.513993</v>
       </c>
       <c r="B23" s="1">
-        <v>16.554587</v>
+        <v>16.554587000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>901.183000</v>
+        <v>901.18299999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.183000</v>
+        <v>-198.18299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>59606.647260</v>
+        <v>59606.647259999998</v>
       </c>
       <c r="G23" s="1">
         <v>16.557402</v>
       </c>
       <c r="H23" s="1">
-        <v>918.433000</v>
+        <v>918.43299999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.333000</v>
+        <v>-167.333</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>59617.160926</v>
+        <v>59617.160925999997</v>
       </c>
       <c r="L23" s="1">
-        <v>16.560322</v>
+        <v>16.560321999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>940.637000</v>
+        <v>940.63699999999994</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.643000</v>
+        <v>-118.643</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>59627.805567</v>
+        <v>59627.805567000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.563279</v>
+        <v>16.563279000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.978000</v>
+        <v>946.97799999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.643000</v>
+        <v>-102.643</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>59638.254817</v>
+        <v>59638.254817000001</v>
       </c>
       <c r="V23" s="1">
-        <v>16.566182</v>
+        <v>16.566182000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.349000</v>
+        <v>953.34900000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.958400</v>
+        <v>-87.958399999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>59648.725827</v>
+        <v>59648.725827000002</v>
       </c>
       <c r="AA23" s="1">
         <v>16.569091</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.448000</v>
+        <v>960.44799999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.712000</v>
+        <v>-76.712000000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>59659.189958</v>
+        <v>59659.189958000003</v>
       </c>
       <c r="AF23" s="1">
         <v>16.571997</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.241000</v>
+        <v>965.24099999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.641800</v>
+        <v>-74.641800000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>59669.740329</v>
@@ -5983,73 +6399,73 @@
         <v>16.574928</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.548000</v>
+        <v>972.548</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.538400</v>
+        <v>-79.538399999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>59680.627047</v>
+        <v>59680.627047000002</v>
       </c>
       <c r="AP23" s="1">
         <v>16.577952</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.740000</v>
+        <v>980.74</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.211000</v>
+        <v>-91.210999999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>59692.365339</v>
+        <v>59692.365339000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.581213</v>
+        <v>16.581213000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.752000</v>
+        <v>990.75199999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.917000</v>
+        <v>-108.917</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>59703.438525</v>
+        <v>59703.438524999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.584288</v>
+        <v>16.584288000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.167000</v>
+        <v>999.16700000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.500000</v>
+        <v>-124.5</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>59714.414494</v>
+        <v>59714.414493999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.587337</v>
+        <v>16.587337000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.390000</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.916000</v>
+        <v>-195.916</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>59725.530862</v>
@@ -6058,315 +6474,315 @@
         <v>16.590425</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.012000</v>
+        <v>-311.012</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>59736.157886</v>
+        <v>59736.157886000001</v>
       </c>
       <c r="BO23" s="1">
         <v>16.593377</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-491.641000</v>
+        <v>-491.64100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>59747.100882</v>
+        <v>59747.100881999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.596417</v>
+        <v>16.596416999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.420000</v>
+        <v>1335.42</v>
       </c>
       <c r="BV23" s="1">
-        <v>-689.114000</v>
+        <v>-689.11400000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>59758.144276</v>
+        <v>59758.144275999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.599485</v>
+        <v>16.599485000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.120000</v>
+        <v>1471.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-898.960000</v>
+        <v>-898.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>59771.207409</v>
+        <v>59771.207409000002</v>
       </c>
       <c r="CD23" s="1">
         <v>16.603113</v>
       </c>
       <c r="CE23" s="1">
-        <v>1824.600000</v>
+        <v>1824.6</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1394.630000</v>
+        <v>-1394.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>59596.856696</v>
+        <v>59596.856696000003</v>
       </c>
       <c r="B24" s="1">
         <v>16.554682</v>
       </c>
       <c r="C24" s="1">
-        <v>901.183000</v>
+        <v>901.18299999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.244000</v>
+        <v>-198.244</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>59606.992444</v>
+        <v>59606.992444000003</v>
       </c>
       <c r="G24" s="1">
-        <v>16.557498</v>
+        <v>16.557497999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>918.359000</v>
+        <v>918.35900000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.446000</v>
+        <v>-167.446</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>59617.585139</v>
+        <v>59617.585139000003</v>
       </c>
       <c r="L24" s="1">
-        <v>16.560440</v>
+        <v>16.56044</v>
       </c>
       <c r="M24" s="1">
-        <v>940.619000</v>
+        <v>940.61900000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.669000</v>
+        <v>-118.669</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>59628.085806</v>
+        <v>59628.085806000003</v>
       </c>
       <c r="Q24" s="1">
         <v>16.563357</v>
       </c>
       <c r="R24" s="1">
-        <v>946.994000</v>
+        <v>946.99400000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.688000</v>
+        <v>-102.688</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>59638.536017</v>
+        <v>59638.536016999999</v>
       </c>
       <c r="V24" s="1">
-        <v>16.566260</v>
+        <v>16.56626</v>
       </c>
       <c r="W24" s="1">
-        <v>953.370000</v>
+        <v>953.37</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.949800</v>
+        <v>-87.949799999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>59649.076996</v>
+        <v>59649.076996000003</v>
       </c>
       <c r="AA24" s="1">
         <v>16.569188</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.521000</v>
+        <v>960.52099999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.691800</v>
+        <v>-76.691800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>59659.533159</v>
+        <v>59659.533158999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.572093</v>
+        <v>16.572092999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.247000</v>
+        <v>965.24699999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.696500</v>
+        <v>-74.6965</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>59670.086535</v>
+        <v>59670.086535000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.575024</v>
+        <v>16.575023999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.539000</v>
+        <v>972.53899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.566800</v>
+        <v>-79.566800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>59681.347208</v>
+        <v>59681.347207999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.578152</v>
+        <v>16.578151999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.739000</v>
+        <v>980.73900000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.198600</v>
+        <v>-91.198599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>59692.754234</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.581321</v>
+        <v>16.581320999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.913000</v>
+        <v>-108.913</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>59703.796140</v>
+        <v>59703.796139999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.584388</v>
+        <v>16.584388000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.162000</v>
+        <v>999.16200000000003</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.509000</v>
+        <v>-124.509</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>59714.779054</v>
+        <v>59714.779053999999</v>
       </c>
       <c r="BE24" s="1">
         <v>16.587439</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.400000</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.921000</v>
+        <v>-195.92099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>59726.219277</v>
+        <v>59726.219276999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.590616</v>
+        <v>16.590616000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.670000</v>
+        <v>1105.67</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.006000</v>
+        <v>-311.00599999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>59736.864949</v>
+        <v>59736.864949000003</v>
       </c>
       <c r="BO24" s="1">
         <v>16.593574</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.110000</v>
+        <v>1214.1099999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-491.603000</v>
+        <v>-491.60300000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>59747.221410</v>
+        <v>59747.221409999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.596450</v>
+        <v>16.596450000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.460000</v>
+        <v>1335.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-689.218000</v>
+        <v>-689.21799999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>59758.569842</v>
+        <v>59758.569841999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.599603</v>
+        <v>16.599602999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.110000</v>
+        <v>1471.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-898.887000</v>
+        <v>-898.88699999999994</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>59771.727217</v>
@@ -6375,317 +6791,317 @@
         <v>16.603258</v>
       </c>
       <c r="CE24" s="1">
-        <v>1823.800000</v>
+        <v>1823.8</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1395.150000</v>
+        <v>-1395.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>59597.284279</v>
       </c>
       <c r="B25" s="1">
-        <v>16.554801</v>
+        <v>16.554801000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>901.041000</v>
+        <v>901.04100000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.216000</v>
+        <v>-198.21600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>59607.423962</v>
+        <v>59607.423962000001</v>
       </c>
       <c r="G25" s="1">
-        <v>16.557618</v>
+        <v>16.557618000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>918.084000</v>
+        <v>918.08399999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.244000</v>
+        <v>-167.244</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>59617.860285</v>
+        <v>59617.860285000002</v>
       </c>
       <c r="L25" s="1">
-        <v>16.560517</v>
+        <v>16.560517000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.559000</v>
+        <v>940.55899999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.761000</v>
+        <v>-118.761</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>59628.437510</v>
+        <v>59628.437510000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.563455</v>
+        <v>16.563455000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.980000</v>
+        <v>946.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.697000</v>
+        <v>-102.697</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>59638.879281</v>
+        <v>59638.879281000001</v>
       </c>
       <c r="V25" s="1">
-        <v>16.566355</v>
+        <v>16.566355000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.441000</v>
+        <v>953.44100000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.860300</v>
+        <v>-87.860299999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>59649.426674</v>
+        <v>59649.426674000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.569285</v>
+        <v>16.569285000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.497000</v>
+        <v>960.49699999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.668400</v>
+        <v>-76.668400000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>59660.219652</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.572283</v>
+        <v>16.572282999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.236000</v>
+        <v>965.23599999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.680800</v>
+        <v>-74.680800000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>59670.782918</v>
+        <v>59670.782917999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.575217</v>
+        <v>16.575216999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.537000</v>
+        <v>972.53700000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.545700</v>
+        <v>-79.545699999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>59681.704824</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.578251</v>
+        <v>16.578251000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.748000</v>
+        <v>980.74800000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.223100</v>
+        <v>-91.223100000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>59693.118265</v>
+        <v>59693.118264999997</v>
       </c>
       <c r="AU25" s="1">
         <v>16.581422</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.774000</v>
+        <v>990.774</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.909000</v>
+        <v>-108.90900000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>59704.156762</v>
+        <v>59704.156761999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>16.584488</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.167000</v>
+        <v>999.16700000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.511000</v>
+        <v>-124.511</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>59715.451629</v>
+        <v>59715.451629000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.587625</v>
+        <v>16.587624999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.410000</v>
+        <v>1038.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.924000</v>
+        <v>-195.92400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>59726.684562</v>
+        <v>59726.684562000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.590746</v>
+        <v>16.590745999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.011000</v>
+        <v>-311.01100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>59736.991150</v>
+        <v>59736.991150000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.593609</v>
+        <v>16.593609000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.140000</v>
+        <v>1214.1400000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-491.612000</v>
+        <v>-491.61200000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>59747.634579</v>
+        <v>59747.634578999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.596565</v>
+        <v>16.596564999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.430000</v>
+        <v>1335.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-689.323000</v>
+        <v>-689.32299999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>59759.016737</v>
+        <v>59759.016736999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.599727</v>
+        <v>16.599727000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-898.909000</v>
+        <v>-898.90899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>59772.244050</v>
+        <v>59772.244050000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.603401</v>
+        <v>16.603401000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1823.890000</v>
+        <v>1823.89</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1395.060000</v>
+        <v>-1395.06</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>59597.555561</v>
+        <v>59597.555561000001</v>
       </c>
       <c r="B26" s="1">
-        <v>16.554877</v>
+        <v>16.554877000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>901.300000</v>
+        <v>901.3</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.130000</v>
+        <v>-198.13</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>59607.690811</v>
       </c>
       <c r="G26" s="1">
-        <v>16.557692</v>
+        <v>16.557691999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>918.259000</v>
+        <v>918.25900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.698000</v>
+        <v>-167.69800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>59618.207020</v>
+        <v>59618.207020000002</v>
       </c>
       <c r="L26" s="1">
         <v>16.560613</v>
       </c>
       <c r="M26" s="1">
-        <v>940.359000</v>
+        <v>940.35900000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.687000</v>
+        <v>-118.687</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>59628.784173</v>
@@ -6694,210 +7110,211 @@
         <v>16.563551</v>
       </c>
       <c r="R26" s="1">
-        <v>946.965000</v>
+        <v>946.96500000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.632000</v>
+        <v>-102.63200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>59639.220497</v>
+        <v>59639.220497000002</v>
       </c>
       <c r="V26" s="1">
-        <v>16.566450</v>
+        <v>16.56645</v>
       </c>
       <c r="W26" s="1">
-        <v>953.336000</v>
+        <v>953.33600000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.966100</v>
+        <v>-87.966099999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>59650.122066</v>
+        <v>59650.122066000004</v>
       </c>
       <c r="AA26" s="1">
         <v>16.569478</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.490000</v>
+        <v>960.49</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.655800</v>
+        <v>-76.655799999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>59660.564341</v>
+        <v>59660.564340999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.572379</v>
+        <v>16.572379000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.205000</v>
+        <v>965.20500000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.665200</v>
+        <v>-74.665199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>59671.131111</v>
+        <v>59671.131111000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.575314</v>
+        <v>16.575313999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.516000</v>
+        <v>972.51599999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.541800</v>
+        <v>-79.541799999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>59682.067934</v>
+        <v>59682.067933999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.578352</v>
+        <v>16.578351999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.751000</v>
+        <v>980.75099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.209600</v>
+        <v>-91.209599999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>59693.794946</v>
+        <v>59693.794946000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.581610</v>
+        <v>16.581610000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.921000</v>
+        <v>-108.92100000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>59704.821404</v>
+        <v>59704.821404000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.584673</v>
+        <v>16.584672999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.159000</v>
+        <v>999.15899999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.511000</v>
+        <v>-124.511</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>59715.890090</v>
+        <v>59715.890090000001</v>
       </c>
       <c r="BE26" s="1">
         <v>16.587747</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.380000</v>
+        <v>1038.3800000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.922000</v>
+        <v>-195.922</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>59727.070449</v>
+        <v>59727.070448999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.590853</v>
+        <v>16.590852999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.600000</v>
+        <v>1105.5999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.014000</v>
+        <v>-311.01400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>59737.398142</v>
+        <v>59737.398141999998</v>
       </c>
       <c r="BO26" s="1">
         <v>16.593722</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.120000</v>
+        <v>1214.1199999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-491.630000</v>
+        <v>-491.63</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>59748.065601</v>
+        <v>59748.065601000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.596685</v>
+        <v>16.596685000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.560000</v>
+        <v>1335.56</v>
       </c>
       <c r="BV26" s="1">
-        <v>-689.330000</v>
+        <v>-689.33</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>59759.451768</v>
+        <v>59759.451767999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.599848</v>
+        <v>16.599848000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA26" s="1">
-        <v>-898.976000</v>
+        <v>-898.976</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>59772.798081</v>
+        <v>59772.798081000001</v>
       </c>
       <c r="CD26" s="1">
         <v>16.603555</v>
       </c>
       <c r="CE26" s="1">
-        <v>1824.330000</v>
+        <v>1824.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1394.330000</v>
+        <v>-1394.33</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>